--- a/Manager.xlsx
+++ b/Manager.xlsx
@@ -2,22 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aizhan_Zhussupova\Desktop\EPAM Learn\AZURE Pet-Project\Office Depot\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aizhan_Zhussupova\Desktop\EPAM Learn\AZURE Pet-Project\Office Depot\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BBB50A2-A30C-449E-982D-A9B88273A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5754794-2A8D-4C84-B04A-6D51D1917469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Manager" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Manager!$A$1:$B$25</definedName>
-  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -561,11 +558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B858943-ED1A-44B2-9827-8D5F60153DA0}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -775,11 +772,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B25" xr:uid="{00000000-0009-0000-0000-000002000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-      <sortCondition ref="B1:B25"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
